--- a/biology/Neurosciences/Simplexité/Simplexité.xlsx
+++ b/biology/Neurosciences/Simplexité/Simplexité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simplexit%C3%A9</t>
+          <t>Simplexité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La simplexité est l’art de rendre simples, lisibles, compréhensibles les choses complexes[1]. C'est une notion émergente et un domaine d'étude nouveau en systémique, ingénierie et neurosciences.
-De même que complexe ne doit pas être confondu avec compliqué, simplexe ne doit pas être confondu avec simple[2].
-Une « chose simplexe » est une « chose complexe dont on a déconstruit la complexité que l'on sait expliquer de manière simple »[3].
-Rendre « simplexe un objet artificiel » est un « processus d'ingénierie complexe consistant à rendre simple et épuré un ensemble puissant de fonctionnalités »[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La simplexité est l’art de rendre simples, lisibles, compréhensibles les choses complexes. C'est une notion émergente et un domaine d'étude nouveau en systémique, ingénierie et neurosciences.
+De même que complexe ne doit pas être confondu avec compliqué, simplexe ne doit pas être confondu avec simple.
+Une « chose simplexe » est une « chose complexe dont on a déconstruit la complexité que l'on sait expliquer de manière simple ».
+Rendre « simplexe un objet artificiel » est un « processus d'ingénierie complexe consistant à rendre simple et épuré un ensemble puissant de fonctionnalités ».
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Simplexit%C3%A9</t>
+          <t>Simplexité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>phénomène complexe de la lumière expliqué simplement à l'aide des équations de Maxwell appliquées aux ondes électromagnétiques (cf fig. 1),
 l'interface homme-machine intuitive et simplexe des smartphones.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Simplexit%C3%A9</t>
+          <t>Simplexité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Domaines d'application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Design logiciel des interactions homme-machine,
 Conception de tableaux de bord automobiles ou aéronautiques (cf fig. 2).</t>
